--- a/sdtm_workspace/mapping_specs/lb_mapping_specification.xlsx
+++ b/sdtm_workspace/mapping_specs/lb_mapping_specification.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Study identifier mapped from STUDY column. Value: 'MAXIS-08'</t>
+          <t>Study identifier from STUDY column ('MAXIS-08')</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Domain abbreviation for Laboratory Test Results - hardcoded as 'LB'</t>
+          <t>Constant value 'LB' for Laboratory domain</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unique subject identifier derived from STUDY, INVSITE (site), and PT (patient). Example: 'MAXIS-08-C008_408-01-01'</t>
+          <t>Unique subject identifier concatenating study, site (INVSITE='C008_408'), and patient (PT='01-01')</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sequence number for each lab test record per subject, ordered by visit number, repeat sequence, and lab parameter</t>
+          <t>Sequence number per subject ordered by visit, repeat sequence, and lab parameter</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Map lab parameter names to CDISC LBTESTCD controlled terminology</t>
+          <t>Map to LBTESTCD controlled terminology: HEMOGLOBIN-&gt;HGB, HEMATOCRIT-&gt;HCT, WBC-&gt;WBC, NEUTROPHILS-&gt;NEUT, LYMPHOCYTES-&gt;LYMPH, etc.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lab test short name. Map LPARM values: HEMOGLOBIN-&gt;HGB, HEMATOCRIT-&gt;HCT, WBC-&gt;WBC, NEUTROPHILS-&gt;NEUT, LYMPHOCYTES-&gt;LYMPH, GRANULOCYTES-&gt;GRAN, IG-&gt;IG, etc.</t>
+          <t>Lab test short code derived from LPARM (e.g., 'HEMOGLOBIN' maps to 'HGB'). Handle LABQSN for additional tests like GRANULOCYTES-&gt;GRAN, IG-&gt;IG</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Map lab parameter names to CDISC LBTEST controlled terminology</t>
+          <t>Map to LBTEST controlled terminology: HEMOGLOBIN-&gt;Hemoglobin, HEMATOCRIT-&gt;Hematocrit, WBC-&gt;Leukocytes, NEUTROPHILS-&gt;Neutrophils, LYMPHOCYTES-&gt;Lymphocytes, etc.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Lab test full name. Map LPARM values: HEMOGLOBIN-&gt;Hemoglobin, HEMATOCRIT-&gt;Hematocrit, WBC-&gt;Leukocytes, NEUTROPHILS-&gt;Neutrophils, LYMPHOCYTES-&gt;Lymphocytes, GRANULOCYTES-&gt;Granulocytes, IG-&gt;Immature Granulocytes</t>
+          <t>Lab test full name derived from LPARM. Use LABQSN if LPARM is null. Convert to proper case/standard terminology</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Category for lab test. DCMNAME value 'LAB_HAEM' indicates hematology laboratory tests</t>
+          <t>Category for lab test. DCMNAME='LAB_HAEM' indicates Hematology tests</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Convert numeric to character, preserve null values</t>
+          <t>Convert numeric to character, preserving original precision</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -816,7 +816,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Result or finding in original units as character. Source has 210 null values representing not done or missing results</t>
+          <t>Original lab result as collected. Source LVALUE2 has null_count=210 indicating some missing results</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Map to CDISC UNIT controlled terminology</t>
+          <t>Use LUNIT2 if available, otherwise use LUNIT1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MAP</t>
+          <t>DERIVE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Original units. LUNIT2 appears to be converted units (G/DL, 10^3/UL). Map G/DL-&gt;g/dL, 10^3/UL-&gt;10^3/uL. 1210 null values use LUNIT1 instead</t>
+          <t>Original units. LUNIT2 has values like 'G/DL', '10^3/UL' (null_count=1210). LUNIT1 has 'G/L', '%', '10^9/L' (no nulls). Prefer LUNIT2 when available</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Reference range lower limit in original units - not provided in source data</t>
+          <t>Reference range lower limit in original units. Not present in source; requires external reference range lookup based on LBTESTCD, age, gender</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Reference range upper limit in original units - not provided in source data</t>
+          <t>Reference range upper limit in original units. Not present in source; requires external reference range lookup</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Convert numeric to character in standard format, preserve null values</t>
+          <t>Convert to character in standard format, handle missing as empty string</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -984,7 +984,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Character result in standard format. Same as LBORRES when numeric. Null when test not performed</t>
+          <t>Character result in standard format. Same as LBORRES unless standardization needed</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Use numeric value as-is after unit standardization</t>
+          <t>Use numeric value directly after unit standardization</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1027,7 +1027,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Numeric result in standard units. LVALUE2 contains numeric values when units are in LUNIT2 (standardized). Apply conversion when only LUNIT1 available</t>
+          <t>Numeric result in standard units. Apply conversion if standardizing from LUNIT2 to LUNIT1 or standard SI units</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LUNIT2</t>
+          <t>LUNIT1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Map to CDISC UNIT controlled terminology for standard units</t>
+          <t>Map to standard CDISC UNIT codelist</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Standard units. Map G/DL-&gt;g/dL, 10^3/UL-&gt;10^3/uL, G/L-&gt;g/L, %-&gt;%, 10^9/L-&gt;10^9/L</t>
+          <t>Standard units. LUNIT1 appears to be standardized units (G/L, %, 10^9/L). Map '10^9/L' to 'E9/L', verify % context</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Reference range lower limit in standard units - not provided in source data. Should be populated from lab reference ranges</t>
+          <t>Reference range lower limit in standard units. Derive from LBORNRLO with unit conversion</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Reference range upper limit in standard units - not provided in source data. Should be populated from lab reference ranges</t>
+          <t>Reference range upper limit in standard units. Derive from LBORNRHI with unit conversion</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Reference range indicator. Derived after populating reference ranges. Values: LOW, NORMAL, HIGH, ABNORMAL</t>
+          <t>Reference range indicator. Derive by comparing LBSTRESN to reference ranges. Values: NORMAL, ABNORMAL, HIGH, LOW</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Specimen type - not explicitly in source. For hematology tests, typically BLOOD or WHOLE BLOOD. May need to derive from test type or external data</t>
+          <t>Specimen type. For HEMATOLOGY (LBCAT), typically 'BLOOD' or 'WHOLE BLOOD'. Not in source, derive from LBCAT or external metadata</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IF CPEVENT = 'BASELINE' OR VISIT = 1 THEN 'Y' ELSE NULL</t>
+          <t>IF CPEVENT = 'BASELINE' AND QUALIFYV = 1 THEN 'Y' ELSE NULL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Baseline flag. Set to 'Y' when CPEVENT is 'BASELINE' or VISIT is 1, representing the baseline measurement for each subject</t>
+          <t>Baseline flag. Set to 'Y' for baseline visit where CPEVENT='BASELINE' and QUALIFYV=1 (qualifying visit)</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Use numeric visit number as-is</t>
+          <t>Use numeric visit number directly</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1328,7 +1328,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Visit number from source VISIT field. Values range from 1 to 998 (998 likely represents unscheduled visit)</t>
+          <t>Visit number from VISIT column (values 1-998, with 998 likely representing unscheduled visits)</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Use visit name as-is</t>
+          <t>Use visit name from CPEVENT</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1371,7 +1371,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Visit name from CPEVENT (e.g., 'BASELINE'). Contains descriptive visit names</t>
+          <t>Visit name from CPEVENT (e.g., 'BASELINE'). Contains descriptive visit labels</t>
         </is>
       </c>
     </row>
@@ -1404,13 +1404,13 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DERIVE</t>
+          <t>DATE_FORMAT</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Date/time of specimen collection in ISO 8601 format. Not present in source data - typically comes from visit dates or separate lab collection log</t>
+          <t>Date/Time of specimen collection in ISO 8601 format. Not present in provided source columns - requires date field from EDC</t>
         </is>
       </c>
     </row>
@@ -1443,25 +1443,25 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>DERIVE</t>
+          <t>DATE_FORMAT</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Study day of specimen collection. Derived from LBDTC and reference start date (RFSTDTC from DM domain)</t>
+          <t>Study day of specimen collection. Requires reference start date (RFSTDTC) from DM domain</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LBSTAT</t>
+          <t>LBSPID</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Completion Status</t>
+          <t>Sponsor-Defined Identifier</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1476,39 +1476,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>QUALIFYV</t>
+          <t>REPEATSN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>IF QUALIFYV = 2 THEN 'NOT DONE' ELSE NULL</t>
+          <t>Use as sponsor-defined identifier for repeat/replicate tests</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>DERIVE</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ND</t>
-        </is>
-      </c>
+          <t>COPY</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Completion status. QUALIFYV appears to be a qualification flag where 2 may indicate not done/not performed. Null when test was performed (QUALIFYV=1)</t>
+          <t>Sponsor-defined identifier. REPEATSN indicates repeat sequence number (1-10) which can identify replicate samples</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LBREASND</t>
+          <t>LBSTAT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reason Not Done</t>
+          <t>Completion Status</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1523,31 +1519,39 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[derived]</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>QUALIFYV</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>IF LVALUE2 IS NULL THEN 'NOT DONE' ELSE NULL</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>DERIVE</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Reason test not done. Should be populated when LBSTAT='NOT DONE'. Not directly available in source</t>
+          <t>Completion status. Set to 'NOT DONE' when LBORRES is null (210 records). QUALIFYV=2 may also indicate non-qualifying/not done</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LBSPID</t>
+          <t>LBREASND</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sponsor-Defined Identifier</t>
+          <t>Reason Not Done</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1562,35 +1566,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>REPEATSN</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Convert to character string</t>
-        </is>
-      </c>
+          <t>[derived]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>COPY</t>
+          <t>DERIVE</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sponsor-defined identifier. REPEATSN appears to be a repeat sequence number (1-10) that could serve as specimen or sample identifier within visit</t>
+          <t>Reason test not done. Not present in source data - would need additional field to capture reason</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LBNAM</t>
+          <t>LBSCAT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vendor Name</t>
+          <t>Subcategory for Lab Test</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1605,31 +1605,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[derived]</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>SUBEVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Map SUBEVE to subcategory: 0='SCHEDULED', 1='UNSCHEDULED', 2='REPEAT'</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DERIVE</t>
+          <t>MAP</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Vendor name or laboratory name. Not provided in source data</t>
+          <t>Subcategory for lab test. SUBEVE values (0,1,2) may indicate scheduled vs unscheduled collection timing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LBSCAT</t>
+          <t>LBNAM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Subcategory for Lab Test</t>
+          <t>Vendor Name</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1644,14 +1648,10 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SUBEVE</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Use to create subcategory if needed</t>
-        </is>
-      </c>
+          <t>[derived]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>DERIVE</t>
@@ -1660,19 +1660,19 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Subcategory for lab test. SUBEVE (0-2) may indicate sub-events or unscheduled collections</t>
+          <t>Laboratory vendor name. Not in source data - requires external metadata or separate vendor tracking</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LBFAST</t>
+          <t>LBMETHOD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fasting Status</t>
+          <t>Method of Test or Examination</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1698,24 +1698,24 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>METHOD</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Fasting status (Y/N). Not provided in source data but important for certain lab tests</t>
+          <t>Method of test or examination. Not in source - requires lab procedure documentation</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LBMETHOD</t>
+          <t>LBFAST</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Method of Test or Examination</t>
+          <t>Fasting Status</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>METHOD</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Method of test or examination. Not provided in source data</t>
+          <t>Fasting status (Y/N). Not in source - requires separate fasting status data collection</t>
         </is>
       </c>
     </row>
@@ -1789,179 +1789,89 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Derived flag. Would be 'Y' for calculated/derived lab values. All source values appear to be observed results</t>
+          <t>Derived flag. Set to 'Y' if lab value is calculated (e.g., ratios, differentials calculated from absolute counts)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LBORRESU</t>
+          <t>EPOCH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Original Units</t>
+          <t>Epoch</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LUNIT1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Map to CDISC UNIT controlled terminology when LUNIT2 is null</t>
-        </is>
-      </c>
+          <t>[derived]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>MAP</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>UNIT</t>
-        </is>
-      </c>
+          <t>DERIVE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Alternative original units when LUNIT2 is not available. LUNIT1 contains G/L, %, 10^9/L units. Map %-&gt;%, G/L-&gt;g/L, 10^9/L-&gt;10^9/L</t>
+          <t>Trial epoch (e.g., SCREENING, TREATMENT, FOLLOW-UP). Requires trial visit mapping</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LBTESTCD</t>
+          <t>SITEID</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lab Test or Examination Short Name</t>
+          <t>SITEID</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Perm</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LABQSN</t>
+          <t>INVSITE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Map to LBTESTCD controlled terminology when LPARM is insufficient</t>
+          <t>Extract site portion from INVSITE (e.g., '408' from 'C008_408')</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MAP</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>LBTESTCD</t>
-        </is>
-      </c>
+          <t>DERIVE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Additional lab qualifier present in only 6 records. Values: GRANULOCYTES, IG. May represent additional tests or qualifiers to main LPARM. Map GRANULOCYTES-&gt;GRAN, IG-&gt;IG</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EPOCH</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Char</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[derived]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>DERIVE</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Trial epoch. Not in source but can be derived from visit number ranges or external study design metadata</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>VISITDY</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>VISITDY</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[derived]</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>DERIVE</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Planned study day of visit. Should come from trial visit schedule based on VISITNUM</t>
+          <t>Study site identifier. INVSITE format 'C008_408' appears to be country_site</t>
         </is>
       </c>
     </row>
@@ -2064,7 +1974,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-27T17:19:07.724462</t>
+          <t>2026-02-02T09:36:01.782791</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,7 +2125,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Use LUNIT2 when available, otherwise use LUNIT1</t>
+          <t>COALESCE(LUNIT2, LUNIT1)</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2137,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Not available in source - leave null or populate from reference data</t>
+          <t>Derive from reference data or metadata if available</t>
         </is>
       </c>
     </row>
@@ -2239,175 +2149,151 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Not available in source - leave null or populate from reference data</t>
+          <t>Derive from reference data or metadata if available</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LBSTRESU</t>
+          <t>LBSTNRLO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Use LUNIT2 when available, otherwise convert LUNIT1 to standard CDISC units</t>
+          <t>Apply same conversion factor as LBSTRESN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LBSTNRLO</t>
+          <t>LBSTNRHI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Not available in source - leave null or populate from reference data</t>
+          <t>Apply same conversion factor as LBSTRESN</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LBSTNRHI</t>
+          <t>LBSPEC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Not available in source - leave null or populate from reference data</t>
+          <t>'BLOOD' or 'SERUM' based on test category</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LBSPEC</t>
+          <t>LBDTC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Derive based on LBCAT. For HEMATOLOGY, typically 'BLOOD' or 'WHOLE BLOOD'</t>
+          <t>Requires date/time from source not provided in sample. Look for date columns in full dataset</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LBDTC</t>
+          <t>LBDY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Not available in source - must be obtained from another source dataset</t>
+          <t>(LBDTC_DATE - RFSTDTC_DATE) + 1 if LBDTC &gt;= RFSTDTC, else (LBDTC_DATE - RFSTDTC_DATE)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LBDY</t>
+          <t>LBREASND</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LBDTC - RFSTDTC + 1 (if LBDTC &gt;= RFSTDTC) or LBDTC - RFSTDTC (if LBDTC &lt; RFSTDTC)</t>
+          <t>Populate when LBSTAT='NOT DONE'. Requires reason field from source</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LBREASND</t>
+          <t>LBNAM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IF LBSTAT = 'NOT DONE' THEN populate reason, ELSE NULL</t>
+          <t>Derive from external lab vendor information if available</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LBNAM</t>
+          <t>LBMETHOD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Not available in source - populate if vendor information exists</t>
+          <t>Derive from lab manual or metadata based on LBTESTCD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LBSCAT</t>
+          <t>LBFAST</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IF SUBEVE &gt; 0 THEN 'UNSCHEDULED' ELSE NULL</t>
+          <t>Derive from visit requirements or fasting status field if available</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LBFAST</t>
+          <t>LBDRVFL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Not available in source - populate if fasting status is collected</t>
+          <t>'Y' for calculated/derived lab values, NULL for directly measured</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LBMETHOD</t>
+          <t>EPOCH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Not available in source - populate if method information exists</t>
+          <t>Map from trial visits or TV domain based on VISITNUM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LBDRVFL</t>
+          <t>SITEID</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NULL for all records as no derived values present</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>EPOCH</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Derive from VISITNUM or external trial design data (e.g., SCREENING, TREATMENT, FOLLOW-UP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>VISITDY</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Derive from trial visit schedule - planned study day of visit</t>
+          <t>SUBSTR(INVSITE, INSTR(INVSITE, '_') + 1)</t>
         </is>
       </c>
     </row>
